--- a/newwisedata/testssh_ans/mcmc3.xlsx
+++ b/newwisedata/testssh_ans/mcmc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wf</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -495,30 +500,33 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>4.05</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.15</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>178.4</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>179.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>177.6</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>193</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -532,30 +540,33 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.04</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>165.3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>164.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>208</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -569,30 +580,33 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.89</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.05</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>170.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>173</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>167.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>193</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -602,35 +616,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2010 AJ30</t>
+          <t>2009 UX17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.81</v>
+        <v>130</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>2.49</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>123.4</v>
+        <v>0.08</v>
       </c>
       <c r="H5" t="n">
-        <v>123.7</v>
+        <v>236.4</v>
       </c>
       <c r="I5" t="n">
-        <v>123</v>
+        <v>236.6</v>
       </c>
       <c r="J5" t="n">
-        <v>111</v>
+        <v>236.2</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>390</v>
+      </c>
+      <c r="L5" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -639,35 +656,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2010 BH115</t>
+          <t>2010 AJ30</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.057</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>66.09999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>66.40000000000001</v>
+        <v>123.4</v>
       </c>
       <c r="I6" t="n">
-        <v>65.7</v>
+        <v>123.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2938</v>
+        <v>123</v>
       </c>
       <c r="K6" t="n">
-        <v>470</v>
+        <v>111</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -676,35 +696,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2010 CA55</t>
+          <t>2010 BH115</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.67</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.057</v>
       </c>
       <c r="G7" t="n">
-        <v>264.6</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>265</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>264.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>65.7</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>2938</v>
+      </c>
+      <c r="L7" t="n">
+        <v>470</v>
       </c>
     </row>
     <row r="8">
@@ -713,35 +736,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2010 CC55</t>
+          <t>2010 CA55</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.78</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>1.67</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>164.6</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>165.3</v>
+        <v>264.6</v>
       </c>
       <c r="I8" t="n">
-        <v>163.7</v>
+        <v>265</v>
       </c>
       <c r="J8" t="n">
-        <v>242</v>
+        <v>264.3</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>352</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -750,14 +776,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2010 CN141</t>
+          <t>2010 CC55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.38</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1.78</v>
       </c>
       <c r="E9" t="n">
         <v>0.05</v>
@@ -766,19 +792,22 @@
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>196.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>197.1</v>
+        <v>164.6</v>
       </c>
       <c r="I9" t="n">
-        <v>196.2</v>
+        <v>165.3</v>
       </c>
       <c r="J9" t="n">
-        <v>254</v>
+        <v>163.7</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -787,35 +816,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2010 CO1</t>
+          <t>2010 CN141</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.15</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01</v>
+        <v>1.38</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>274.3</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>275.5</v>
+        <v>196.6</v>
       </c>
       <c r="I10" t="n">
-        <v>273</v>
+        <v>197.1</v>
       </c>
       <c r="J10" t="n">
-        <v>382</v>
+        <v>196.2</v>
       </c>
       <c r="K10" t="n">
-        <v>132</v>
+        <v>254</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -824,35 +856,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2010 DG77</t>
+          <t>2010 CO1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>234.6</v>
+        <v>0.04</v>
       </c>
       <c r="H11" t="n">
-        <v>235</v>
+        <v>274.3</v>
       </c>
       <c r="I11" t="n">
-        <v>234.3</v>
+        <v>275.5</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>382</v>
+      </c>
+      <c r="L11" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -861,35 +896,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2010 DH77</t>
+          <t>2010 DG77</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.11</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>313.2</v>
+        <v>0.09</v>
       </c>
       <c r="H12" t="n">
-        <v>313.7</v>
+        <v>234.6</v>
       </c>
       <c r="I12" t="n">
-        <v>312.7</v>
+        <v>235</v>
       </c>
       <c r="J12" t="n">
-        <v>628</v>
+        <v>234.3</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>315</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -898,35 +936,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2010 EX11</t>
+          <t>2010 DH77</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
         <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>70.40000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>70.5</v>
+        <v>313.2</v>
       </c>
       <c r="I13" t="n">
-        <v>70.2</v>
+        <v>313.7</v>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>312.7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>628</v>
+      </c>
+      <c r="L13" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -935,34 +976,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2010 FC81</t>
+          <t>2010 EX11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>271.4</v>
+        <v>0.08</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>270.3</v>
+        <v>70.5</v>
       </c>
       <c r="J14" t="n">
-        <v>402</v>
+        <v>70.2</v>
       </c>
       <c r="K14" t="n">
+        <v>40</v>
+      </c>
+      <c r="L14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -972,35 +1016,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2010 FH81</t>
+          <t>2010 FA81</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.19</v>
+        <v>148</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>204.3</v>
+        <v>0.08</v>
       </c>
       <c r="H15" t="n">
-        <v>204.7</v>
+        <v>152.6</v>
       </c>
       <c r="I15" t="n">
-        <v>203.9</v>
+        <v>152.8</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>152.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="L15" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1009,35 +1056,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2010 GP67</t>
+          <t>2010 FC81</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.45</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>157.7</v>
+        <v>0.05</v>
       </c>
       <c r="H16" t="n">
-        <v>158</v>
+        <v>271.4</v>
       </c>
       <c r="I16" t="n">
-        <v>157.4</v>
+        <v>272.6</v>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>270.3</v>
       </c>
       <c r="K16" t="n">
-        <v>70</v>
+        <v>402</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1046,35 +1096,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2010 GS7</t>
+          <t>2010 FH81</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.63</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.1</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>209.6</v>
-      </c>
       <c r="H17" t="n">
-        <v>210.1</v>
+        <v>204.3</v>
       </c>
       <c r="I17" t="n">
-        <v>209</v>
+        <v>204.7</v>
       </c>
       <c r="J17" t="n">
-        <v>203</v>
+        <v>203.9</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1083,35 +1136,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2010 HW81</t>
+          <t>2010 GP67</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.88</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>4.45</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>319.9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>320.9</v>
+        <v>157.7</v>
       </c>
       <c r="I18" t="n">
-        <v>318.9</v>
+        <v>158</v>
       </c>
       <c r="J18" t="n">
-        <v>352</v>
+        <v>157.4</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>180</v>
+      </c>
+      <c r="L18" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1120,35 +1176,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2010 HX107</t>
+          <t>2010 GS7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.24</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>75.90000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>76</v>
+        <v>209.6</v>
       </c>
       <c r="I19" t="n">
-        <v>75.8</v>
+        <v>210.1</v>
       </c>
       <c r="J19" t="n">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>203</v>
+      </c>
+      <c r="L19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1157,35 +1216,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2010 HZ104</t>
+          <t>2010 HW81</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.34</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.14</v>
-      </c>
       <c r="F20" t="n">
         <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>112.9</v>
+        <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>113.3</v>
+        <v>319.9</v>
       </c>
       <c r="I20" t="n">
-        <v>112.5</v>
+        <v>320.9</v>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>318.9</v>
       </c>
       <c r="K20" t="n">
-        <v>25</v>
+        <v>352</v>
+      </c>
+      <c r="L20" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -1194,35 +1256,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2010 JN71</t>
+          <t>2010 HX107</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>76</v>
+      </c>
+      <c r="J21" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
         <v>10</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>212.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>212.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>214</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1231,35 +1296,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2010 JX16</t>
+          <t>2010 HZ104</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.53</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26</v>
+        <v>1.34</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="n">
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>800</v>
+        <v>0.14</v>
       </c>
       <c r="H22" t="n">
-        <v>800</v>
+        <v>112.9</v>
       </c>
       <c r="I22" t="n">
-        <v>800</v>
+        <v>113.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2877</v>
+        <v>112.5</v>
       </c>
       <c r="K22" t="n">
-        <v>207</v>
+        <v>140</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1268,35 +1336,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2010 KP10</t>
+          <t>2010 JN71</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.699999999999999</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>138.3</v>
+        <v>0.11</v>
       </c>
       <c r="H23" t="n">
-        <v>139.6</v>
+        <v>212.1</v>
       </c>
       <c r="I23" t="n">
-        <v>137.2</v>
+        <v>212.5</v>
       </c>
       <c r="J23" t="n">
-        <v>87</v>
+        <v>211.8</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>214</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1305,35 +1376,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2010 KU7</t>
+          <t>2010 JX16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.56</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E24" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="F24" t="n">
         <v>0.2</v>
       </c>
       <c r="G24" t="n">
-        <v>130.9</v>
+        <v>0.35</v>
       </c>
       <c r="H24" t="n">
-        <v>131.2</v>
+        <v>1181.2</v>
       </c>
       <c r="I24" t="n">
-        <v>130.7</v>
+        <v>1183.5</v>
       </c>
       <c r="J24" t="n">
-        <v>102</v>
+        <v>1178.9</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>2877</v>
+      </c>
+      <c r="L24" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -1342,35 +1416,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2010 LH14</t>
+          <t>2010 KP10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.96</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>151.1</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="n">
-        <v>152.4</v>
+        <v>138.3</v>
       </c>
       <c r="I25" t="n">
-        <v>149.7</v>
+        <v>139.6</v>
       </c>
       <c r="J25" t="n">
-        <v>101</v>
+        <v>137.2</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1379,35 +1456,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2010 LJ68</t>
+          <t>2010 KU7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.15</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>4.56</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>220.6</v>
+        <v>0.14</v>
       </c>
       <c r="H26" t="n">
-        <v>221</v>
+        <v>130.9</v>
       </c>
       <c r="I26" t="n">
-        <v>220.2</v>
+        <v>131.2</v>
       </c>
       <c r="J26" t="n">
-        <v>193</v>
+        <v>130.7</v>
       </c>
       <c r="K26" t="n">
-        <v>37</v>
+        <v>102</v>
+      </c>
+      <c r="L26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1416,35 +1496,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2010 LK68</t>
+          <t>2010 LH14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.17</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>7.96</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>181.8</v>
+        <v>0.11</v>
       </c>
       <c r="H27" t="n">
-        <v>182.3</v>
+        <v>151.1</v>
       </c>
       <c r="I27" t="n">
-        <v>181.3</v>
+        <v>152.4</v>
       </c>
       <c r="J27" t="n">
-        <v>236</v>
+        <v>149.7</v>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1453,35 +1536,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2010 LL68</t>
+          <t>2010 LJ68</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.6</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.5</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.04</v>
-      </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>170.6</v>
+        <v>0.03</v>
       </c>
       <c r="H28" t="n">
-        <v>171</v>
+        <v>220.6</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3</v>
+        <v>221</v>
       </c>
       <c r="J28" t="n">
-        <v>153</v>
+        <v>220.2</v>
       </c>
       <c r="K28" t="n">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="L28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -1490,35 +1576,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2010 LV108</t>
+          <t>2010 LK68</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.44</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.5</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.04</v>
-      </c>
       <c r="F29" t="n">
         <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>201.6</v>
+        <v>0.05</v>
       </c>
       <c r="H29" t="n">
-        <v>202.2</v>
+        <v>181.8</v>
       </c>
       <c r="I29" t="n">
-        <v>201.1</v>
+        <v>182.3</v>
       </c>
       <c r="J29" t="n">
-        <v>234</v>
+        <v>181.3</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>236</v>
+      </c>
+      <c r="L29" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1527,35 +1616,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2010 NS36</t>
+          <t>2010 LL68</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.03</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.057</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>71.40000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H30" t="n">
-        <v>72</v>
+        <v>170.6</v>
       </c>
       <c r="I30" t="n">
-        <v>70.90000000000001</v>
+        <v>171</v>
       </c>
       <c r="J30" t="n">
-        <v>3107</v>
+        <v>170.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1060</v>
+        <v>153</v>
+      </c>
+      <c r="L30" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1564,35 +1656,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2010 NY65</t>
+          <t>2010 LV108</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="E31" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>209.9</v>
+        <v>0.04</v>
       </c>
       <c r="H31" t="n">
-        <v>210.6</v>
+        <v>201.6</v>
       </c>
       <c r="I31" t="n">
-        <v>209.2</v>
+        <v>202.2</v>
       </c>
       <c r="J31" t="n">
-        <v>228</v>
+        <v>201.1</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>234</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1601,35 +1696,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2010 OH126</t>
+          <t>2010 NS36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.99</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2</v>
+        <v>0.057</v>
       </c>
       <c r="G32" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>208.4</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>207.6</v>
+        <v>72</v>
       </c>
       <c r="J32" t="n">
-        <v>218</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>12</v>
+        <v>3107</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1060</v>
       </c>
     </row>
     <row r="33">
@@ -1638,35 +1736,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010 PU66</t>
+          <t>2010 NY65</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>212</v>
+        <v>0.11</v>
       </c>
       <c r="H33" t="n">
-        <v>214.3</v>
+        <v>209.9</v>
       </c>
       <c r="I33" t="n">
-        <v>209.5</v>
+        <v>210.6</v>
       </c>
       <c r="J33" t="n">
-        <v>180</v>
+        <v>209.2</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>228</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1675,35 +1776,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2010 PW58</t>
+          <t>2010 OH126</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.39</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0.2</v>
       </c>
       <c r="G34" t="n">
-        <v>194.9</v>
+        <v>0.11</v>
       </c>
       <c r="H34" t="n">
-        <v>195.3</v>
+        <v>208</v>
       </c>
       <c r="I34" t="n">
-        <v>194.5</v>
+        <v>208.4</v>
       </c>
       <c r="J34" t="n">
-        <v>213</v>
+        <v>207.6</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>218</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1712,35 +1816,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2010 XP69</t>
+          <t>2010 PU66</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.17</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>0.28</v>
+        <v>8.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>162</v>
+        <v>0.05</v>
       </c>
       <c r="H35" t="n">
-        <v>162.8</v>
+        <v>212</v>
       </c>
       <c r="I35" t="n">
-        <v>161.2</v>
+        <v>214.3</v>
       </c>
       <c r="J35" t="n">
-        <v>273</v>
+        <v>209.5</v>
       </c>
       <c r="K35" t="n">
-        <v>105</v>
+        <v>180</v>
+      </c>
+      <c r="L35" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1749,35 +1856,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2014 FD7</t>
+          <t>2010 PW58</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.9</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>5.39</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0.2</v>
       </c>
       <c r="G36" t="n">
-        <v>349.9</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
-        <v>350.5</v>
+        <v>194.9</v>
       </c>
       <c r="I36" t="n">
-        <v>349.2</v>
+        <v>195.3</v>
       </c>
       <c r="J36" t="n">
-        <v>360</v>
+        <v>194.5</v>
       </c>
       <c r="K36" t="n">
-        <v>150</v>
+        <v>213</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1786,32 +1896,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2015 TF</t>
+          <t>2010 XP69</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7.61</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>311.5</v>
+        <v>0.19</v>
       </c>
       <c r="H37" t="n">
-        <v>316.1</v>
+        <v>162</v>
       </c>
       <c r="I37" t="n">
-        <v>306.8</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>162.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>273</v>
+      </c>
+      <c r="L37" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1819,34 +1936,113 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2014 FD7</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>18</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H38" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>360</v>
+      </c>
+      <c r="L38" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2015 TF</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>306.8</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2016 UH101</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.04</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="H40" t="n">
         <v>185.3</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I40" t="n">
         <v>185.7</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J40" t="n">
         <v>184.9</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K40" t="n">
         <v>67</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L40" t="n">
         <v>28</v>
       </c>
     </row>
